--- a/data/ms2.xlsx
+++ b/data/ms2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/5ir/projet Intégrateur/planificateur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E667650D-E142-514F-B007-ADA410BC5C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A1554-BD05-C948-B919-FFFF1776216C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="1100" windowWidth="12220" windowHeight="16460" xr2:uid="{4FFB9F85-7002-8647-90ED-3CB7AB34F024}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Task_id</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>MS2_10</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>FOV_10</t>
   </si>
 </sst>
 </file>
@@ -108,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2288E989-CABE-EB45-8194-2ACF13604F6D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +452,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -456,8 +466,14 @@
       <c r="C2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>43686</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -467,8 +483,14 @@
       <c r="C3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>43819</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -478,8 +500,14 @@
       <c r="C4">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>43819</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -489,8 +517,14 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>43791</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -500,8 +534,14 @@
       <c r="C6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>43791</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -511,8 +551,14 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>43775</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -522,8 +568,14 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>43798</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -533,8 +585,14 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>43805</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -544,8 +602,14 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>43811</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -554,6 +618,9 @@
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43775</v>
       </c>
     </row>
   </sheetData>

--- a/data/ms2.xlsx
+++ b/data/ms2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/5ir/projet Intégrateur/planificateur/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A1554-BD05-C948-B919-FFFF1776216C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29296A01-D7AB-E749-B1D1-10C6D8412FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="1100" windowWidth="12220" windowHeight="16460" xr2:uid="{4FFB9F85-7002-8647-90ED-3CB7AB34F024}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Task_id</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>FOV_10</t>
+  </si>
+  <si>
+    <t>MS2_03,MS2_04</t>
+  </si>
+  <si>
+    <t>prec</t>
   </si>
 </sst>
 </file>
@@ -431,15 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2288E989-CABE-EB45-8194-2ACF13604F6D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -487,10 +499,13 @@
         <v>43819</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -506,8 +521,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -523,8 +541,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -540,8 +561,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -557,8 +581,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -574,8 +601,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -591,8 +621,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -608,8 +641,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -621,6 +657,9 @@
       </c>
       <c r="D11" s="1">
         <v>43775</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
